--- a/js/16/16.xlsx
+++ b/js/16/16.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tea_b\dev\AdventOfCode\AdventOfCode\js\16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scrich/Dev/AdventOfCode/js/16/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{45BD6CFD-E977-4E59-BFCD-6092E99848BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7DA6A8-3596-6B4E-B7AE-F65DC7808A4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7170" yWindow="3390" windowWidth="14400" windowHeight="7810"/>
+    <workbookView xWindow="4800" yWindow="1360" windowWidth="21380" windowHeight="17140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="valid_tickets" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>zone</t>
   </si>
@@ -82,11 +82,17 @@
   <si>
     <t>departure location</t>
   </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -223,7 +229,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,6 +409,18 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -564,8 +582,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -920,21 +940,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="1.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="21" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="1.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="21" width="2.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>0</v>
       </c>
@@ -996,7 +1016,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1007,7 +1027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1021,7 +1041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1035,12 +1055,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1051,7 +1071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1062,17 +1082,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1116,57 +1136,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1177,79 +1197,82 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U191"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:U196"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139"/>
+    <sheetView tabSelected="1" topLeftCell="E152" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:U191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B1">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="2">
         <v>0</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="2">
         <v>1</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="2">
         <v>2</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="2">
         <v>3</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="2">
         <v>4</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="2">
         <v>5</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="2">
         <v>6</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="2">
         <v>7</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="2">
         <v>8</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="2">
         <v>9</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="2">
         <v>10</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="2">
         <v>11</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="2">
         <v>12</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="2">
         <v>13</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="2">
         <v>14</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="2">
         <v>15</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="2">
         <v>16</v>
       </c>
-      <c r="S1">
+      <c r="S1" s="2">
         <v>17</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="2">
         <v>18</v>
       </c>
-      <c r="U1">
+      <c r="U1" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
@@ -1313,8 +1336,8 @@
         <v>599</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
@@ -1378,8 +1401,8 @@
         <v>385</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
@@ -1443,8 +1466,8 @@
         <v>644</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
@@ -1508,8 +1531,8 @@
         <v>635</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
@@ -1573,8 +1596,8 @@
         <v>941</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
@@ -1638,8 +1661,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A8">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
@@ -1703,8 +1726,8 @@
         <v>946</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A9">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
@@ -1768,8 +1791,8 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
@@ -1833,8 +1856,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A11">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
@@ -1898,8 +1921,8 @@
         <v>813</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A12">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
@@ -1963,8 +1986,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A13">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
@@ -2028,8 +2051,8 @@
         <v>493</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A14">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
@@ -2093,8 +2116,8 @@
         <v>771</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A15">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
@@ -2158,8 +2181,8 @@
         <v>796</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A16">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
@@ -2223,8 +2246,8 @@
         <v>294</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A17">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
@@ -2288,8 +2311,8 @@
         <v>866</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A18">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
@@ -2353,8 +2376,8 @@
         <v>345</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A19">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
@@ -2418,8 +2441,8 @@
         <v>519</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A20">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
@@ -2483,8 +2506,8 @@
         <v>691</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
@@ -2548,8 +2571,8 @@
         <v>825</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A22">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
@@ -2613,8 +2636,8 @@
         <v>672</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A23">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
@@ -2678,8 +2701,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A24">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
@@ -2743,8 +2766,8 @@
         <v>810</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
@@ -2808,8 +2831,8 @@
         <v>508</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A26">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
@@ -2873,8 +2896,8 @@
         <v>631</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A27">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
@@ -2938,8 +2961,8 @@
         <v>846</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A28">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
@@ -3003,8 +3026,8 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A29">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
@@ -3068,8 +3091,8 @@
         <v>555</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A30">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
@@ -3133,8 +3156,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A31">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
@@ -3198,8 +3221,8 @@
         <v>942</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A32">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
@@ -3263,8 +3286,8 @@
         <v>371</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A33">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
@@ -3328,8 +3351,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A34">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
@@ -3393,8 +3416,8 @@
         <v>774</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
@@ -3458,8 +3481,8 @@
         <v>790</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A36">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
@@ -3523,8 +3546,8 @@
         <v>942</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A37">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
@@ -3588,8 +3611,8 @@
         <v>309</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A38">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
@@ -3653,8 +3676,8 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A39">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
@@ -3718,8 +3741,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A40">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
@@ -3783,8 +3806,8 @@
         <v>428</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A41">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
@@ -3848,8 +3871,8 @@
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A42">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
@@ -3913,8 +3936,8 @@
         <v>612</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A43">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
@@ -3978,8 +4001,8 @@
         <v>631</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A44">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
@@ -4043,8 +4066,8 @@
         <v>321</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A45">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
@@ -4108,8 +4131,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A46">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
@@ -4173,8 +4196,8 @@
         <v>494</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A47">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
@@ -4238,8 +4261,8 @@
         <v>743</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A48">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
@@ -4303,8 +4326,8 @@
         <v>675</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A49">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
@@ -4368,8 +4391,8 @@
         <v>618</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A50">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
@@ -4433,8 +4456,8 @@
         <v>232</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A51">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
@@ -4498,8 +4521,8 @@
         <v>675</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A52">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
@@ -4563,8 +4586,8 @@
         <v>881</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A53">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
@@ -4628,8 +4651,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A54">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
@@ -4693,8 +4716,8 @@
         <v>318</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A55">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
@@ -4758,8 +4781,8 @@
         <v>508</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A56">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
@@ -4823,8 +4846,8 @@
         <v>482</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A57">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
@@ -4888,8 +4911,8 @@
         <v>393</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A58">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
@@ -4953,8 +4976,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A59">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
@@ -5018,8 +5041,8 @@
         <v>461</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A60">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
@@ -5083,8 +5106,8 @@
         <v>866</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A61">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
@@ -5148,8 +5171,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A62">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
@@ -5213,8 +5236,8 @@
         <v>793</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A63">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
@@ -5278,8 +5301,8 @@
         <v>591</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A64">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
@@ -5343,8 +5366,8 @@
         <v>366</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A65">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
@@ -5408,8 +5431,8 @@
         <v>679</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A66">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
@@ -5473,8 +5496,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A67">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
@@ -5538,8 +5561,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A68">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
@@ -5603,8 +5626,8 @@
         <v>384</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A69">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
@@ -5668,8 +5691,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A70">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
@@ -5733,8 +5756,8 @@
         <v>643</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A71">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
@@ -5798,8 +5821,8 @@
         <v>494</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A72">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
@@ -5863,8 +5886,8 @@
         <v>784</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A73">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
@@ -5928,8 +5951,8 @@
         <v>444</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A74">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
@@ -5993,8 +6016,8 @@
         <v>608</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A75">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
@@ -6058,8 +6081,8 @@
         <v>630</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A76">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
@@ -6123,8 +6146,8 @@
         <v>795</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A77">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
@@ -6188,8 +6211,8 @@
         <v>794</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A78">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
@@ -6253,8 +6276,8 @@
         <v>765</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A79">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
@@ -6318,8 +6341,8 @@
         <v>606</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A80">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
@@ -6383,8 +6406,8 @@
         <v>671</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A81">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
@@ -6448,8 +6471,8 @@
         <v>829</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A82">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
@@ -6513,8 +6536,8 @@
         <v>503</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A83">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
@@ -6578,8 +6601,8 @@
         <v>387</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A84">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
@@ -6643,8 +6666,8 @@
         <v>439</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A85">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
@@ -6708,8 +6731,8 @@
         <v>379</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A86">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
@@ -6773,8 +6796,8 @@
         <v>731</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A87">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
@@ -6838,8 +6861,8 @@
         <v>393</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A88">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
@@ -6903,8 +6926,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A89">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
@@ -6968,8 +6991,8 @@
         <v>943</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A90">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
@@ -7033,8 +7056,8 @@
         <v>760</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A91">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
@@ -7098,8 +7121,8 @@
         <v>735</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A92">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
@@ -7163,8 +7186,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A93">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
@@ -7228,8 +7251,8 @@
         <v>778</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A94">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
@@ -7293,8 +7316,8 @@
         <v>232</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A95">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
@@ -7358,8 +7381,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A96">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
@@ -7423,8 +7446,8 @@
         <v>945</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A97">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
@@ -7488,8 +7511,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A98">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
@@ -7553,8 +7576,8 @@
         <v>822</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A99">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
@@ -7618,8 +7641,8 @@
         <v>938</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A100">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
@@ -7683,8 +7706,8 @@
         <v>868</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A101">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
@@ -7748,8 +7771,8 @@
         <v>354</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A102">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
@@ -7813,8 +7836,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A103">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
@@ -7878,8 +7901,8 @@
         <v>558</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A104">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
@@ -7943,8 +7966,8 @@
         <v>717</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A105">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
@@ -8008,8 +8031,8 @@
         <v>851</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A106">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
@@ -8073,8 +8096,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A107">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
@@ -8138,8 +8161,8 @@
         <v>874</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A108">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
@@ -8203,8 +8226,8 @@
         <v>289</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A109">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
@@ -8268,8 +8291,8 @@
         <v>497</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A110">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
@@ -8333,8 +8356,8 @@
         <v>790</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A111">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
@@ -8398,8 +8421,8 @@
         <v>455</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A112">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
@@ -8463,8 +8486,8 @@
         <v>578</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A113">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
@@ -8528,8 +8551,8 @@
         <v>681</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A114">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
@@ -8593,8 +8616,8 @@
         <v>500</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A115">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
@@ -8658,8 +8681,8 @@
         <v>811</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A116">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
@@ -8723,8 +8746,8 @@
         <v>575</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A117">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
@@ -8788,8 +8811,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A118">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
@@ -8853,8 +8876,8 @@
         <v>614</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A119">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
@@ -8918,8 +8941,8 @@
         <v>633</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A120">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
@@ -8983,8 +9006,8 @@
         <v>524</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A121">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
@@ -9048,8 +9071,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A122">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
@@ -9113,8 +9136,8 @@
         <v>246</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A123">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
@@ -9178,8 +9201,8 @@
         <v>855</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A124">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
@@ -9243,8 +9266,8 @@
         <v>687</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A125">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
@@ -9308,8 +9331,8 @@
         <v>738</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A126">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
@@ -9373,8 +9396,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A127">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
@@ -9438,8 +9461,8 @@
         <v>575</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A128">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
@@ -9503,8 +9526,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A129">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
@@ -9568,8 +9591,8 @@
         <v>819</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A130">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
@@ -9633,8 +9656,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A131">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
@@ -9698,8 +9721,8 @@
         <v>876</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A132">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
@@ -9763,8 +9786,8 @@
         <v>887</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A133">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
@@ -9828,8 +9851,8 @@
         <v>373</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A134">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
@@ -9893,8 +9916,8 @@
         <v>321</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A135">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
@@ -9958,8 +9981,8 @@
         <v>429</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A136">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
@@ -10023,8 +10046,8 @@
         <v>529</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A137">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
@@ -10088,8 +10111,8 @@
         <v>440</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A138">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
@@ -10153,8 +10176,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A139">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
@@ -10218,8 +10241,8 @@
         <v>813</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A140">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
@@ -10283,8 +10306,8 @@
         <v>382</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A141">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
@@ -10348,8 +10371,8 @@
         <v>836</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A142">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
@@ -10413,8 +10436,8 @@
         <v>552</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A143">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
@@ -10478,8 +10501,8 @@
         <v>611</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A144">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
@@ -10543,8 +10566,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A145">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
@@ -10608,8 +10631,8 @@
         <v>307</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A146">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
@@ -10673,8 +10696,8 @@
         <v>757</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A147">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
@@ -10738,8 +10761,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A148">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
@@ -10803,8 +10826,8 @@
         <v>532</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A149">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
@@ -10868,8 +10891,8 @@
         <v>358</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A150">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
@@ -10933,8 +10956,8 @@
         <v>864</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A151">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151">
@@ -10998,8 +11021,8 @@
         <v>646</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A152">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152">
@@ -11063,8 +11086,8 @@
         <v>887</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A153">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153">
@@ -11128,8 +11151,8 @@
         <v>385</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A154">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154">
@@ -11193,8 +11216,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A155">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155">
@@ -11258,8 +11281,8 @@
         <v>723</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A156">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156">
@@ -11323,8 +11346,8 @@
         <v>554</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A157">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157">
@@ -11388,8 +11411,8 @@
         <v>674</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A158">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158">
@@ -11453,8 +11476,8 @@
         <v>748</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A159">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159">
@@ -11518,8 +11541,8 @@
         <v>370</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A160">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160">
@@ -11583,8 +11606,8 @@
         <v>231</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A161">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161">
@@ -11648,8 +11671,8 @@
         <v>601</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A162">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162">
@@ -11713,8 +11736,8 @@
         <v>450</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A163">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163">
@@ -11778,8 +11801,8 @@
         <v>376</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A164">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164">
@@ -11843,8 +11866,8 @@
         <v>791</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A165">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165">
@@ -11908,8 +11931,8 @@
         <v>437</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A166">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166">
@@ -11973,8 +11996,8 @@
         <v>517</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A167">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167">
@@ -12038,8 +12061,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A168">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168">
@@ -12103,8 +12126,8 @@
         <v>721</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A169">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169">
@@ -12168,8 +12191,8 @@
         <v>532</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A170">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170">
@@ -12233,8 +12256,8 @@
         <v>872</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A171">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171">
@@ -12298,8 +12321,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A172">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172">
@@ -12363,8 +12386,8 @@
         <v>444</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A173">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173">
@@ -12428,8 +12451,8 @@
         <v>346</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A174">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174">
@@ -12493,8 +12516,8 @@
         <v>682</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A175">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175">
@@ -12558,8 +12581,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A176">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176">
@@ -12623,8 +12646,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A177">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177">
@@ -12688,8 +12711,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A178">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178">
@@ -12753,8 +12776,8 @@
         <v>494</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A179">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179">
@@ -12818,8 +12841,8 @@
         <v>796</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A180">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180">
@@ -12883,8 +12906,8 @@
         <v>732</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A181">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181">
@@ -12948,8 +12971,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A182">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182">
@@ -13013,8 +13036,8 @@
         <v>645</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A183">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183">
@@ -13078,8 +13101,8 @@
         <v>944</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A184">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184">
@@ -13143,8 +13166,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A185">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185">
@@ -13208,8 +13231,8 @@
         <v>179</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A186">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186">
@@ -13273,8 +13296,8 @@
         <v>495</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A187">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187">
@@ -13338,8 +13361,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A188">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188">
@@ -13403,8 +13426,8 @@
         <v>816</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A189">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189">
@@ -13468,8 +13491,8 @@
         <v>289</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A190">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190">
@@ -13533,8 +13556,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A191">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191">
@@ -13596,6 +13619,176 @@
       </c>
       <c r="U191">
         <v>878</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B195">
+        <f>MAX(B2:B191)</f>
+        <v>947</v>
+      </c>
+      <c r="C195">
+        <f t="shared" ref="C195:U195" si="0">MAX(C2:C191)</f>
+        <v>948</v>
+      </c>
+      <c r="D195">
+        <f t="shared" si="0"/>
+        <v>943</v>
+      </c>
+      <c r="E195">
+        <f t="shared" si="0"/>
+        <v>945</v>
+      </c>
+      <c r="F195">
+        <f t="shared" si="0"/>
+        <v>944</v>
+      </c>
+      <c r="G195">
+        <f t="shared" si="0"/>
+        <v>947</v>
+      </c>
+      <c r="H195">
+        <f t="shared" si="0"/>
+        <v>948</v>
+      </c>
+      <c r="I195">
+        <f t="shared" si="0"/>
+        <v>949</v>
+      </c>
+      <c r="J195">
+        <f t="shared" si="0"/>
+        <v>946</v>
+      </c>
+      <c r="K195">
+        <f t="shared" si="0"/>
+        <v>948</v>
+      </c>
+      <c r="L195">
+        <f t="shared" si="0"/>
+        <v>945</v>
+      </c>
+      <c r="M195">
+        <f t="shared" si="0"/>
+        <v>943</v>
+      </c>
+      <c r="N195">
+        <f t="shared" si="0"/>
+        <v>948</v>
+      </c>
+      <c r="O195">
+        <f t="shared" si="0"/>
+        <v>948</v>
+      </c>
+      <c r="P195">
+        <f t="shared" si="0"/>
+        <v>948</v>
+      </c>
+      <c r="Q195">
+        <f t="shared" si="0"/>
+        <v>949</v>
+      </c>
+      <c r="R195">
+        <f t="shared" si="0"/>
+        <v>940</v>
+      </c>
+      <c r="S195">
+        <f t="shared" si="0"/>
+        <v>947</v>
+      </c>
+      <c r="T195">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="U195">
+        <f t="shared" si="0"/>
+        <v>946</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B196">
+        <f>MIN(B2:B191)</f>
+        <v>57</v>
+      </c>
+      <c r="C196">
+        <f t="shared" ref="C196:U196" si="1">MIN(C2:C191)</f>
+        <v>52</v>
+      </c>
+      <c r="D196">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="E196">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="G196">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="H196">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="I196">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="J196">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="K196">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="L196">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="M196">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="N196">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="O196">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="P196">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="Q196">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="R196">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="S196">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="T196">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="U196">
+        <f t="shared" si="1"/>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/js/16/16.xlsx
+++ b/js/16/16.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scrich/Dev/AdventOfCode/js/16/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7DA6A8-3596-6B4E-B7AE-F65DC7808A4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A890708-ED7E-8649-9E4C-CC9C050FFEE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="1360" windowWidth="21380" windowHeight="17140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10440" yWindow="1620" windowWidth="21380" windowHeight="17140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="valid_tickets" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>zone</t>
   </si>
@@ -88,12 +89,72 @@
   <si>
     <t>min</t>
   </si>
+  <si>
+    <t>0   departure time</t>
+  </si>
+  <si>
+    <t>1   arrival station</t>
+  </si>
+  <si>
+    <t>2   departure station</t>
+  </si>
+  <si>
+    <t>3   route</t>
+  </si>
+  <si>
+    <t>4   departure track</t>
+  </si>
+  <si>
+    <t>5   arrival track</t>
+  </si>
+  <si>
+    <t>6   arrival location</t>
+  </si>
+  <si>
+    <t>7   departure location</t>
+  </si>
+  <si>
+    <t>8   price</t>
+  </si>
+  <si>
+    <t>9   departure platform</t>
+  </si>
+  <si>
+    <t>10  row</t>
+  </si>
+  <si>
+    <t>11  train</t>
+  </si>
+  <si>
+    <t>12  zone</t>
+  </si>
+  <si>
+    <t>13  type</t>
+  </si>
+  <si>
+    <t>14  duration</t>
+  </si>
+  <si>
+    <t>15  arrival platform</t>
+  </si>
+  <si>
+    <t>16  class</t>
+  </si>
+  <si>
+    <t>17  seat</t>
+  </si>
+  <si>
+    <t>18  departure date</t>
+  </si>
+  <si>
+    <t>19  wagon</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +288,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="35">
@@ -582,10 +649,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1200,7 +1268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E152" workbookViewId="0">
+    <sheetView topLeftCell="E152" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:U191"/>
     </sheetView>
   </sheetViews>
@@ -13794,4 +13862,275 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDE5B22-B51E-794F-A7F7-6CFEE0A55837}">
+  <dimension ref="A1:V30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3">
+        <v>139</v>
+      </c>
+      <c r="C1">
+        <f>B1</f>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>61</v>
+      </c>
+      <c r="C3">
+        <f>B3</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>101</v>
+      </c>
+      <c r="C5">
+        <f>B5</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>53</v>
+      </c>
+      <c r="C8">
+        <f>B8</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>59</v>
+      </c>
+      <c r="C10">
+        <f>B10</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>137</v>
+      </c>
+      <c r="C19">
+        <f>B19</f>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <f>C1*C3*C5*C8*C10*C19</f>
+        <v>366871907221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="C30" s="3">
+        <v>139</v>
+      </c>
+      <c r="D30">
+        <v>109</v>
+      </c>
+      <c r="E30">
+        <v>61</v>
+      </c>
+      <c r="F30">
+        <v>149</v>
+      </c>
+      <c r="G30">
+        <v>101</v>
+      </c>
+      <c r="H30">
+        <v>89</v>
+      </c>
+      <c r="I30">
+        <v>103</v>
+      </c>
+      <c r="J30">
+        <v>53</v>
+      </c>
+      <c r="K30">
+        <v>107</v>
+      </c>
+      <c r="L30">
+        <v>59</v>
+      </c>
+      <c r="M30">
+        <v>73</v>
+      </c>
+      <c r="N30">
+        <v>151</v>
+      </c>
+      <c r="O30">
+        <v>71</v>
+      </c>
+      <c r="P30">
+        <v>67</v>
+      </c>
+      <c r="Q30">
+        <v>97</v>
+      </c>
+      <c r="R30">
+        <v>113</v>
+      </c>
+      <c r="S30">
+        <v>83</v>
+      </c>
+      <c r="T30">
+        <v>163</v>
+      </c>
+      <c r="U30">
+        <v>137</v>
+      </c>
+      <c r="V30">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>